--- a/drafts/schema.xlsx
+++ b/drafts/schema.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="122">
   <si>
     <t>Your name, please? *</t>
   </si>
@@ -49,15 +52,6 @@
     <t>High Priority of TIME means FAST. High priority of QUALITY means PRECISION. High priority of MONEY means CHEAP.</t>
   </si>
   <si>
-    <t>Low (Meh...)</t>
-  </si>
-  <si>
-    <t>Medium (Needs to be a considered factor...)</t>
-  </si>
-  <si>
-    <t>High (Non-negotiable)</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>As in, when do you need the software and/or solution in your hands?</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>When do you need to be LIVE by?</t>
   </si>
   <si>
@@ -130,18 +121,6 @@
     <t>Native Mobile Application (iOS)</t>
   </si>
   <si>
-    <t>Native Mobile Application (Android)</t>
-  </si>
-  <si>
-    <t>Native Mobile Application (Other)</t>
-  </si>
-  <si>
-    <t>Hybrid Mobile (Xamarin)</t>
-  </si>
-  <si>
-    <t>Hybrid Desktop Mobile (Unity3D)</t>
-  </si>
-  <si>
     <t>Database Architecture and Design</t>
   </si>
   <si>
@@ -151,9 +130,6 @@
     <t>Any technology you specifically need this developed in?</t>
   </si>
   <si>
-    <t>C#</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
@@ -163,24 +139,6 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>ASP.NET MVC</t>
-  </si>
-  <si>
-    <t>ASP.NET WEBAPI</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Node.JS</t>
-  </si>
-  <si>
-    <t>Objective-C</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
     <t>NoSQL</t>
   </si>
   <si>
@@ -209,13 +167,285 @@
   </si>
   <si>
     <t>budget</t>
+  </si>
+  <si>
+    <t>Web Question</t>
+  </si>
+  <si>
+    <t>Alt information</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>email string</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Low, Medium, High</t>
+  </si>
+  <si>
+    <t>Level of Quality</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>E-Commerce Web Development</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>quote id</t>
+  </si>
+  <si>
+    <t>Quote status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote </t>
+  </si>
+  <si>
+    <t>coll.insert({</t>
+  </si>
+  <si>
+    <t>"random@email.com",</t>
+  </si>
+  <si>
+    <t>"Mr. Smith",</t>
+  </si>
+  <si>
+    <t>"ciaran",</t>
+  </si>
+  <si>
+    <t>"Mr. Ross",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ciaran.quinlan@gmail.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "0868090777",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "01/09/2019",</t>
+  </si>
+  <si>
+    <t>"4000",</t>
+  </si>
+  <si>
+    <t>"this is the detailed brief",</t>
+  </si>
+  <si>
+    <t>"open",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "send me a quote that will meet my requirements",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sending the standard response"</t>
+  </si>
+  <si>
+    <t>"5000",</t>
+  </si>
+  <si>
+    <t>"10000",</t>
+  </si>
+  <si>
+    <t>"Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</t>
+  </si>
+  <si>
+    <t>"This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</t>
+  </si>
+  <si>
+    <t>"This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</t>
+  </si>
+  <si>
+    <t>"closed",</t>
+  </si>
+  <si>
+    <t>"pending",</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>quoteId:</t>
+  </si>
+  <si>
+    <t>"Low",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Medium",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "High",</t>
+  </si>
+  <si>
+    <t>'Responsive Web Development (HTML5/JSON/REST)',</t>
+  </si>
+  <si>
+    <t>'Native Mobile Application (iOS)',</t>
+  </si>
+  <si>
+    <t>'E-Commerce Web Development',</t>
+  </si>
+  <si>
+    <t>'Database Architecture and Design',</t>
+  </si>
+  <si>
+    <t>'Bespoke Software Platform',</t>
+  </si>
+  <si>
+    <t>'Other:',</t>
+  </si>
+  <si>
+    <t>'Python',</t>
+  </si>
+  <si>
+    <t>'JavaScript',</t>
+  </si>
+  <si>
+    <t>'HTML5',</t>
+  </si>
+  <si>
+    <t>'SQL',</t>
+  </si>
+  <si>
+    <t>'Flask',</t>
+  </si>
+  <si>
+    <t>'Django',</t>
+  </si>
+  <si>
+    <t>'NoSQL',</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>email:</t>
+  </si>
+  <si>
+    <t>phone:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rankQuality: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>rankTime:</t>
+  </si>
+  <si>
+    <t>rankCost:</t>
+  </si>
+  <si>
+    <t>expectedDate:</t>
+  </si>
+  <si>
+    <t>liveDate:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">budget: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">brief: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>typeDevelopment:</t>
+  </si>
+  <si>
+    <t>technology:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">quoteStatus: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>quoteDetails:</t>
+  </si>
+  <si>
+    <t>quoteResponse:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +469,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF44747"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Acumin Pro"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Acumin Pro"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,7 +503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -317,14 +563,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="131" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -354,6 +710,70 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -383,6 +803,43 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,297 +1169,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E58"/>
+    <sheetView topLeftCell="D6" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="86.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:21" ht="57" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="57" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="57" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="57" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="57" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="57" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="57" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="57" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="57" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="57" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="57" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="57" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="57" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="57" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="str">
+        <f>CONCATENATE("'",G14,"',")</f>
+        <v>'Responsive Web Development (HTML5/JSON/REST)',</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" ref="P14:U15" si="0">CONCATENATE("'",H14,"',")</f>
+        <v>'Native Mobile Application (iOS)',</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>'E-Commerce Web Development',</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Database Architecture and Design',</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bespoke Software Platform',</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Other:',</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="0"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="57" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="75">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60">
-      <c r="E20" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="105">
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90">
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60">
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="405">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="150">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="90">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60">
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60">
-      <c r="E39" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60">
-      <c r="E40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45">
-      <c r="E41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="60">
-      <c r="E42" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60">
-      <c r="E43" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45">
-      <c r="E44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="E45" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="E48" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" ht="30">
-      <c r="E51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" ht="30">
-      <c r="E52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="O15" t="str">
+        <f>CONCATENATE("'",G15,"',")</f>
+        <v>'Python',</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>'JavaScript',</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>'HTML5',</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>'SQL',</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Flask',</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Django',</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="0"/>
+        <v>'NoSQL',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="57" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="57" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="57" customHeight="1">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="57" customHeight="1">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="57" customHeight="1">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="57" customHeight="1">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="57" customHeight="1">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="57" customHeight="1">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="57" customHeight="1">
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1027,17 +1578,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1048,4 +1599,3856 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X18"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2">
+        <v>105</v>
+      </c>
+      <c r="H2" s="2">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2">
+        <v>108</v>
+      </c>
+      <c r="K2" s="2">
+        <v>109</v>
+      </c>
+      <c r="L2" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2" s="2">
+        <v>111</v>
+      </c>
+      <c r="N2" s="2">
+        <v>112</v>
+      </c>
+      <c r="O2" s="2">
+        <v>113</v>
+      </c>
+      <c r="P2" s="2">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>115</v>
+      </c>
+      <c r="R2" s="2">
+        <v>116</v>
+      </c>
+      <c r="S2" s="2">
+        <v>117</v>
+      </c>
+      <c r="T2" s="2">
+        <v>118</v>
+      </c>
+      <c r="U2" s="2">
+        <v>119</v>
+      </c>
+      <c r="V2" s="2">
+        <v>120</v>
+      </c>
+      <c r="W2" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="45">
+      <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="71" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="105">
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="30">
+      <c r="A14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="90">
+      <c r="A16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="60">
+      <c r="A17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="random@email.com"/>
+    <hyperlink ref="D4:M4" r:id="rId2" display="random@email.com"/>
+    <hyperlink ref="N4" r:id="rId3" display="random@email.com"/>
+    <hyperlink ref="O4" r:id="rId4" display="random@email.com"/>
+    <hyperlink ref="P4" r:id="rId5" display="random@email.com"/>
+    <hyperlink ref="Q4" r:id="rId6" display="random@email.com"/>
+    <hyperlink ref="R4" r:id="rId7" display="random@email.com"/>
+    <hyperlink ref="S4" r:id="rId8" display="random@email.com"/>
+    <hyperlink ref="T4" r:id="rId9" display="random@email.com"/>
+    <hyperlink ref="U4" r:id="rId10" display="random@email.com"/>
+    <hyperlink ref="V4" r:id="rId11" display="random@email.com"/>
+    <hyperlink ref="W4" r:id="rId12" display="random@email.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="E1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="F1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="H1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="I1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="J1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="K1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="L1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="M1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="N1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="O1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="P1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="R1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="S1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="T1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="U1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+      <c r="V1" t="str">
+        <f>Sheet3!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!B2,"',")</f>
+        <v>quoteId:'100',</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!C2,"',")</f>
+        <v>quoteId:'100',</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!D2,"',")</f>
+        <v>quoteId:'102',</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!E2,"',")</f>
+        <v>quoteId:'103',</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!F2,"',")</f>
+        <v>quoteId:'104',</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!G2,"',")</f>
+        <v>quoteId:'105',</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!H2,"',")</f>
+        <v>quoteId:'106',</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!I2,"',")</f>
+        <v>quoteId:'107',</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!J2,"',")</f>
+        <v>quoteId:'108',</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!K2,"',")</f>
+        <v>quoteId:'109',</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!L2,"',")</f>
+        <v>quoteId:'110',</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!M2,"',")</f>
+        <v>quoteId:'111',</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!N2,"',")</f>
+        <v>quoteId:'112',</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!O2,"',")</f>
+        <v>quoteId:'113',</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!P2,"',")</f>
+        <v>quoteId:'114',</v>
+      </c>
+      <c r="P2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!Q2,"',")</f>
+        <v>quoteId:'115',</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!R2,"',")</f>
+        <v>quoteId:'116',</v>
+      </c>
+      <c r="R2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,Sheet3!S2)</f>
+        <v>quoteId:117</v>
+      </c>
+      <c r="S2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,Sheet3!T2)</f>
+        <v>quoteId:118</v>
+      </c>
+      <c r="T2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,Sheet3!U2)</f>
+        <v>quoteId:119</v>
+      </c>
+      <c r="U2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,Sheet3!V2)</f>
+        <v>quoteId:120</v>
+      </c>
+      <c r="V2" t="str">
+        <f>CONCATENATE(Sheet3!$A2,Sheet3!W2)</f>
+        <v>quoteId:121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!B3)</f>
+        <v>name: "ciaran",</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!C3)</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!D3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!E3)</f>
+        <v>name: "ciaran",</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!F3)</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!G3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="G3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!H3)</f>
+        <v>name: "ciaran",</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!I3)</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!J3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!K3)</f>
+        <v>name: "ciaran",</v>
+      </c>
+      <c r="K3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!L3)</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!M3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!N3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!O3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!P3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!Q3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!R3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="R3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!S3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!T3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="T3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!U3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="U3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!V3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+      <c r="V3" t="str">
+        <f>CONCATENATE(Sheet3!$A3,Sheet3!W3)</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!B4)</f>
+        <v>email: "ciaran.quinlan@gmail.com",</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!C4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!D4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!E4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!F4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!G4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!H4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!I4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!J4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!K4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="K4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!L4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="L4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!M4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!N4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="N4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!O4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="O4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!P4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="P4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!Q4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!R4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="R4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!S4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="S4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!T4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="T4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!U4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="U4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!V4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+      <c r="V4" t="str">
+        <f>CONCATENATE(Sheet3!$A4,Sheet3!W4)</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!B5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!C5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!D5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!E5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!F5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!G5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!H5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!I5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!J5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="J5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!K5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="K5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!L5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!M5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="M5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!N5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="N5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!O5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="O5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!P5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="P5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!Q5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!R5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="R5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!S5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="S5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!T5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="T5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!U5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="U5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!V5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+      <c r="V5" t="str">
+        <f>CONCATENATE(Sheet3!$A5,Sheet3!W5)</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!B6)</f>
+        <v>rankQuality: "Low",</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!C6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!D6)</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!E6)</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!F6)</f>
+        <v>rankQuality: "Low",</v>
+      </c>
+      <c r="F6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!G6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!H6)</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+      <c r="H6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!I6)</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!J6)</f>
+        <v>rankQuality: "Low",</v>
+      </c>
+      <c r="J6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!K6)</f>
+        <v>rankQuality: "Low",</v>
+      </c>
+      <c r="K6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!L6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="L6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!M6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="M6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!N6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="N6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!O6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="O6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!P6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="P6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!Q6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!R6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="R6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!S6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="S6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!T6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="T6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!U6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="U6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!V6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+      <c r="V6" t="str">
+        <f>CONCATENATE(Sheet3!$A6,Sheet3!W6)</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!B7)</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!C7)</f>
+        <v>rankTime:"Low",</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!D7)</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!E7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!F7)</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+      <c r="F7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!G7)</f>
+        <v>rankTime:"Low",</v>
+      </c>
+      <c r="G7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!H7)</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+      <c r="H7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!I7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!J7)</f>
+        <v>rankTime:"Low",</v>
+      </c>
+      <c r="J7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!K7)</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+      <c r="K7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!L7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="L7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!M7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="M7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!N7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="N7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!O7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="O7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!P7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="P7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!Q7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!R7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="R7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!S7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="S7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!T7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="T7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!U7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="U7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!V7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+      <c r="V7" t="str">
+        <f>CONCATENATE(Sheet3!$A7,Sheet3!W7)</f>
+        <v>rankTime: "High",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!B8)</f>
+        <v>rankCost: "High",</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!C8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!D8)</f>
+        <v>rankCost:"Low",</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!E8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!F8)</f>
+        <v>rankCost: "High",</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!G8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="G8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!H8)</f>
+        <v>rankCost:"Low",</v>
+      </c>
+      <c r="H8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!I8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!J8)</f>
+        <v>rankCost: "High",</v>
+      </c>
+      <c r="J8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!K8)</f>
+        <v>rankCost:"Low",</v>
+      </c>
+      <c r="K8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!L8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="L8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!M8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="M8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!N8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="N8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!O8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="O8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!P8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="P8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!Q8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!R8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="R8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!S8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="S8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!T8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="T8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!U8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="U8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!V8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+      <c r="V8" t="str">
+        <f>CONCATENATE(Sheet3!$A8,Sheet3!W8)</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!B9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="B9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!C9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!D9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!E9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!F9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!G9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="G9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!H9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="H9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!I9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="I9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!J9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="J9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!K9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="K9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!L9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="L9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!M9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="M9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!N9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="N9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!O9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="O9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!P9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="P9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!Q9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!R9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="R9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!S9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="S9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!T9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="T9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!U9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="U9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!V9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+      <c r="V9" t="str">
+        <f>CONCATENATE(Sheet3!$A9,Sheet3!W9)</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!B10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="B10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!C10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!D10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!E10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!F10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="F10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!G10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="G10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!H10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="H10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!I10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="I10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!J10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="J10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!K10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="K10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!L10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="L10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!M10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="M10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!N10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="N10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!O10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="O10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!P10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="P10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!Q10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!R10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="R10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!S10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="S10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!T10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="T10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!U10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="U10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!V10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+      <c r="V10" t="str">
+        <f>CONCATENATE(Sheet3!$A10,Sheet3!W10)</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!B11)</f>
+        <v>budget: "4000",</v>
+      </c>
+      <c r="B11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!C11)</f>
+        <v>budget: "5000",</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!D11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!E11)</f>
+        <v>budget: "4000",</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!F11)</f>
+        <v>budget: "5000",</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!G11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="G11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!H11)</f>
+        <v>budget: "4000",</v>
+      </c>
+      <c r="H11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!I11)</f>
+        <v>budget: "5000",</v>
+      </c>
+      <c r="I11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!J11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="J11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!K11)</f>
+        <v>budget: "4000",</v>
+      </c>
+      <c r="K11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!L11)</f>
+        <v>budget: "5000",</v>
+      </c>
+      <c r="L11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!M11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="M11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!N11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="N11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!O11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="O11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!P11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="P11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!Q11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!R11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="R11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!S11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="S11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!T11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="T11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!U11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="U11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!V11)</f>
+        <v>budget: "10000",</v>
+      </c>
+      <c r="V11" t="str">
+        <f>CONCATENATE(Sheet3!$A11,Sheet3!W11)</f>
+        <v>budget: "10000",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!B12)</f>
+        <v>brief: "this is the detailed brief",</v>
+      </c>
+      <c r="B12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!C12)</f>
+        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!D12)</f>
+        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!E12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!F12)</f>
+        <v>brief: "this is the detailed brief",</v>
+      </c>
+      <c r="F12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!G12)</f>
+        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!H12)</f>
+        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
+      </c>
+      <c r="H12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!I12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="I12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!J12)</f>
+        <v>brief: "this is the detailed brief",</v>
+      </c>
+      <c r="J12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!K12)</f>
+        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
+      </c>
+      <c r="K12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!L12)</f>
+        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
+      </c>
+      <c r="L12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!M12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="M12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!N12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="N12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!O12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="O12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!P12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="P12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!Q12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!R12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="R12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!S12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="S12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!T12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="T12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!U12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="U12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!V12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+      <c r="V12" t="str">
+        <f>CONCATENATE(Sheet3!$A12,Sheet3!W12)</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!B13)</f>
+        <v>typeDevelopment:'Responsive Web Development (HTML5/JSON/REST)',</v>
+      </c>
+      <c r="B13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!C13)</f>
+        <v>typeDevelopment:'Native Mobile Application (iOS)',</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!D13)</f>
+        <v>typeDevelopment:'E-Commerce Web Development',</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!E13)</f>
+        <v>typeDevelopment:'Database Architecture and Design',</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!F13)</f>
+        <v>typeDevelopment:'Bespoke Software Platform',</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!G13)</f>
+        <v>typeDevelopment:'Other:',</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!H13)</f>
+        <v>typeDevelopment:'Responsive Web Development (HTML5/JSON/REST)',</v>
+      </c>
+      <c r="H13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!I13)</f>
+        <v>typeDevelopment:'Native Mobile Application (iOS)',</v>
+      </c>
+      <c r="I13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!J13)</f>
+        <v>typeDevelopment:'E-Commerce Web Development',</v>
+      </c>
+      <c r="J13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!K13)</f>
+        <v>typeDevelopment:'Database Architecture and Design',</v>
+      </c>
+      <c r="K13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!L13)</f>
+        <v>typeDevelopment:'Bespoke Software Platform',</v>
+      </c>
+      <c r="L13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!M13)</f>
+        <v>typeDevelopment:'Other:',</v>
+      </c>
+      <c r="M13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!N13)</f>
+        <v>typeDevelopment:'Bespoke Software Platform',</v>
+      </c>
+      <c r="N13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!O13)</f>
+        <v>typeDevelopment:'Other:',</v>
+      </c>
+      <c r="O13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!P13)</f>
+        <v>typeDevelopment:'Responsive Web Development (HTML5/JSON/REST)',</v>
+      </c>
+      <c r="P13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!Q13)</f>
+        <v>typeDevelopment:'Native Mobile Application (iOS)',</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!R13)</f>
+        <v>typeDevelopment:'Bespoke Software Platform',</v>
+      </c>
+      <c r="R13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!S13)</f>
+        <v>typeDevelopment:'Other:',</v>
+      </c>
+      <c r="S13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!T13)</f>
+        <v>typeDevelopment:'Responsive Web Development (HTML5/JSON/REST)',</v>
+      </c>
+      <c r="T13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!U13)</f>
+        <v>typeDevelopment:'Native Mobile Application (iOS)',</v>
+      </c>
+      <c r="U13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!V13)</f>
+        <v>typeDevelopment:'E-Commerce Web Development',</v>
+      </c>
+      <c r="V13" t="str">
+        <f>CONCATENATE(Sheet3!$A13,Sheet3!W13)</f>
+        <v>typeDevelopment:'Database Architecture and Design',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!B14)</f>
+        <v>technology:'Flask',</v>
+      </c>
+      <c r="B14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!C14)</f>
+        <v>technology:'Django',</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!D14)</f>
+        <v>technology:'NoSQL',</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!E14)</f>
+        <v>technology:'JavaScript',</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!F14)</f>
+        <v>technology:'HTML5',</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!G14)</f>
+        <v>technology:'SQL',</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!H14)</f>
+        <v>technology:'Flask',</v>
+      </c>
+      <c r="H14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!I14)</f>
+        <v>technology:'Django',</v>
+      </c>
+      <c r="I14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!J14)</f>
+        <v>technology:'NoSQL',</v>
+      </c>
+      <c r="J14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!K14)</f>
+        <v>technology:'Python',</v>
+      </c>
+      <c r="K14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!L14)</f>
+        <v>technology:'JavaScript',</v>
+      </c>
+      <c r="L14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!M14)</f>
+        <v>technology:'HTML5',</v>
+      </c>
+      <c r="M14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!N14)</f>
+        <v>technology:'HTML5',</v>
+      </c>
+      <c r="N14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!O14)</f>
+        <v>technology:'HTML5',</v>
+      </c>
+      <c r="O14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!P14)</f>
+        <v>technology:'HTML5',</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!Q14)</f>
+        <v>technology:'HTML5',</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!R14)</f>
+        <v>technology:'SQL',</v>
+      </c>
+      <c r="R14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!S14)</f>
+        <v>technology:'Flask',</v>
+      </c>
+      <c r="S14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!T14)</f>
+        <v>technology:'Django',</v>
+      </c>
+      <c r="T14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!U14)</f>
+        <v>technology:'NoSQL',</v>
+      </c>
+      <c r="U14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!V14)</f>
+        <v>technology:'Python',</v>
+      </c>
+      <c r="V14" t="str">
+        <f>CONCATENATE(Sheet3!$A14,Sheet3!W14)</f>
+        <v>technology:'JavaScript',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!B15)</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+      <c r="B15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!C15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!D15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!E15)</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!F15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!G15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="G15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!H15)</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+      <c r="H15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!I15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+      <c r="I15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!J15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="J15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!K15)</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+      <c r="K15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!L15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+      <c r="L15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!M15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="M15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!N15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="N15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!O15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="O15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!P15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!Q15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!R15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="R15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!S15)</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+      <c r="S15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!T15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+      <c r="T15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!U15)</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+      <c r="U15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!V15)</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+      <c r="V15" t="str">
+        <f>CONCATENATE(Sheet3!$A15,Sheet3!W15)</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!B16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="B16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!C16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!D16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="D16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!E16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!F16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="F16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!G16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!H16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="H16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!I16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="I16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!J16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="J16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!K16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="K16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!L16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="L16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!M16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="M16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!N16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="N16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!O16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="O16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!P16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!Q16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!R16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="R16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!S16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="S16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!T16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="T16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!U16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="U16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!V16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+      <c r="V16" t="str">
+        <f>CONCATENATE(Sheet3!$A16,Sheet3!W16)</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!B17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="B17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!C17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!D17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="D17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!E17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!F17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!G17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="G17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!H17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="H17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!I17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="I17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!J17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="J17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!K17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="K17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!L17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="L17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!M17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="M17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!N17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="N17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!O17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="O17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!P17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!Q17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!R17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="R17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!S17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="S17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!T17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="T17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!U17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="U17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!V17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+      <c r="V17" t="str">
+        <f>CONCATENATE(Sheet3!$A17,Sheet3!W17)</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="str">
+        <f>Sheet3!D18</f>
+        <v>});</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Sheet3!E18</f>
+        <v>});</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Sheet3!F18</f>
+        <v>});</v>
+      </c>
+      <c r="D18" t="str">
+        <f>Sheet3!G18</f>
+        <v>});</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Sheet3!H18</f>
+        <v>});</v>
+      </c>
+      <c r="F18" t="str">
+        <f>Sheet3!I18</f>
+        <v>});</v>
+      </c>
+      <c r="G18" t="str">
+        <f>Sheet3!J18</f>
+        <v>});</v>
+      </c>
+      <c r="H18" t="str">
+        <f>Sheet3!K18</f>
+        <v>});</v>
+      </c>
+      <c r="I18" t="str">
+        <f>Sheet3!L18</f>
+        <v>});</v>
+      </c>
+      <c r="J18" t="str">
+        <f>Sheet3!M18</f>
+        <v>});</v>
+      </c>
+      <c r="K18" t="str">
+        <f>Sheet3!N18</f>
+        <v>});</v>
+      </c>
+      <c r="L18" t="str">
+        <f>Sheet3!O18</f>
+        <v>});</v>
+      </c>
+      <c r="M18" t="str">
+        <f>Sheet3!P18</f>
+        <v>});</v>
+      </c>
+      <c r="N18" t="str">
+        <f>Sheet3!Q18</f>
+        <v>});</v>
+      </c>
+      <c r="O18" t="str">
+        <f>Sheet3!R18</f>
+        <v>});</v>
+      </c>
+      <c r="P18" t="str">
+        <f>Sheet3!S18</f>
+        <v>});</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>Sheet3!T18</f>
+        <v>});</v>
+      </c>
+      <c r="R18" t="str">
+        <f>Sheet3!U18</f>
+        <v>});</v>
+      </c>
+      <c r="S18" t="str">
+        <f>Sheet3!V18</f>
+        <v>});</v>
+      </c>
+      <c r="T18" t="str">
+        <f>Sheet3!W18</f>
+        <v>});</v>
+      </c>
+      <c r="U18" t="str">
+        <f>T18</f>
+        <v>});</v>
+      </c>
+      <c r="V18" t="str">
+        <f>U18</f>
+        <v>});</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="str">
+        <f>Sheet4!B1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="str">
+        <f>Sheet4!B2</f>
+        <v>quoteId:'100',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="str">
+        <f>Sheet4!B3</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="str">
+        <f>Sheet4!B4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f>Sheet4!B5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f>Sheet4!B6</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f>Sheet4!B7</f>
+        <v>rankTime:"Low",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f>Sheet4!B8</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f>Sheet4!B9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f>Sheet4!B10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f>Sheet4!B11</f>
+        <v>budget: "5000",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f>Sheet4!B12</f>
+        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f>Sheet4!B13</f>
+        <v>typeDevelopment:'Native Mobile Application (iOS)',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f>Sheet4!B14</f>
+        <v>technology:'Django',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f>Sheet4!B15</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f>Sheet4!B16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f>Sheet4!B17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f>Sheet4!B18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f>Sheet4!C1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f>Sheet4!C2</f>
+        <v>quoteId:'102',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f>Sheet4!C3</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f>Sheet4!C4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f>Sheet4!C5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f>Sheet4!C6</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="str">
+        <f>Sheet4!C7</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="str">
+        <f>Sheet4!C8</f>
+        <v>rankCost:"Low",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="str">
+        <f>Sheet4!C9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="str">
+        <f>Sheet4!C10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f>Sheet4!C11</f>
+        <v>budget: "10000",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f>Sheet4!C12</f>
+        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f>Sheet4!C13</f>
+        <v>typeDevelopment:'E-Commerce Web Development',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f>Sheet4!C14</f>
+        <v>technology:'NoSQL',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f>Sheet4!C15</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="str">
+        <f>Sheet4!C16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="str">
+        <f>Sheet4!C17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="str">
+        <f>Sheet4!C18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="str">
+        <f>Sheet4!D1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="str">
+        <f>Sheet4!D2</f>
+        <v>quoteId:'103',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="str">
+        <f>Sheet4!D3</f>
+        <v>name: "ciaran",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="str">
+        <f>Sheet4!D4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="str">
+        <f>Sheet4!D5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="str">
+        <f>Sheet4!D6</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="str">
+        <f>Sheet4!D7</f>
+        <v>rankTime: "High",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="str">
+        <f>Sheet4!D8</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="str">
+        <f>Sheet4!D9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="str">
+        <f>Sheet4!D10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="str">
+        <f>Sheet4!D11</f>
+        <v>budget: "4000",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="str">
+        <f>Sheet4!D12</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="str">
+        <f>Sheet4!D13</f>
+        <v>typeDevelopment:'Database Architecture and Design',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="str">
+        <f>Sheet4!D14</f>
+        <v>technology:'JavaScript',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="str">
+        <f>Sheet4!D15</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="str">
+        <f>Sheet4!D16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="str">
+        <f>Sheet4!D17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="str">
+        <f>Sheet4!D18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="str">
+        <f>Sheet4!E1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="str">
+        <f>Sheet4!E2</f>
+        <v>quoteId:'104',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="str">
+        <f>Sheet4!E3</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="str">
+        <f>Sheet4!E4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="str">
+        <f>Sheet4!E5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="str">
+        <f>Sheet4!E6</f>
+        <v>rankQuality: "Low",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="str">
+        <f>Sheet4!E7</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="str">
+        <f>Sheet4!E8</f>
+        <v>rankCost: "High",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="str">
+        <f>Sheet4!E9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="str">
+        <f>Sheet4!E10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="str">
+        <f>Sheet4!E11</f>
+        <v>budget: "5000",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="str">
+        <f>Sheet4!E12</f>
+        <v>brief: "this is the detailed brief",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="str">
+        <f>Sheet4!E13</f>
+        <v>typeDevelopment:'Bespoke Software Platform',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="str">
+        <f>Sheet4!E14</f>
+        <v>technology:'HTML5',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="str">
+        <f>Sheet4!E15</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="str">
+        <f>Sheet4!E16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="str">
+        <f>Sheet4!E17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="str">
+        <f>Sheet4!E18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="str">
+        <f>Sheet4!F1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="str">
+        <f>Sheet4!F2</f>
+        <v>quoteId:'105',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="str">
+        <f>Sheet4!F3</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="str">
+        <f>Sheet4!F4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="str">
+        <f>Sheet4!F5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="str">
+        <f>Sheet4!F6</f>
+        <v>rankQuality:  "Medium",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="str">
+        <f>Sheet4!F7</f>
+        <v>rankTime:"Low",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="str">
+        <f>Sheet4!F8</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="str">
+        <f>Sheet4!F9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="str">
+        <f>Sheet4!F10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="str">
+        <f>Sheet4!F11</f>
+        <v>budget: "10000",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="str">
+        <f>Sheet4!F12</f>
+        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="str">
+        <f>Sheet4!F13</f>
+        <v>typeDevelopment:'Other:',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="str">
+        <f>Sheet4!F14</f>
+        <v>technology:'SQL',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="str">
+        <f>Sheet4!F15</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="str">
+        <f>Sheet4!F16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="str">
+        <f>Sheet4!F17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="str">
+        <f>Sheet4!F18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="str">
+        <f>Sheet4!G1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="str">
+        <f>Sheet4!G2</f>
+        <v>quoteId:'106',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="str">
+        <f>Sheet4!G3</f>
+        <v>name: "ciaran",</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="str">
+        <f>Sheet4!G4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="str">
+        <f>Sheet4!G5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="str">
+        <f>Sheet4!G6</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="str">
+        <f>Sheet4!G7</f>
+        <v>rankTime: "Medium",</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="str">
+        <f>Sheet4!G8</f>
+        <v>rankCost:"Low",</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="str">
+        <f>Sheet4!G9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="str">
+        <f>Sheet4!G10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="str">
+        <f>Sheet4!G11</f>
+        <v>budget: "4000",</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="str">
+        <f>Sheet4!G12</f>
+        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="str">
+        <f>Sheet4!G13</f>
+        <v>typeDevelopment:'Responsive Web Development (HTML5/JSON/REST)',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="str">
+        <f>Sheet4!G14</f>
+        <v>technology:'Flask',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="str">
+        <f>Sheet4!G15</f>
+        <v>quoteStatus: "open",</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="str">
+        <f>Sheet4!G16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="str">
+        <f>Sheet4!G17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="str">
+        <f>Sheet4!G18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="str">
+        <f>Sheet4!H1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="str">
+        <f>Sheet4!H2</f>
+        <v>quoteId:'107',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="str">
+        <f>Sheet4!H3</f>
+        <v>name: "Mr. Smith",</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="str">
+        <f>Sheet4!H4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="str">
+        <f>Sheet4!H5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="str">
+        <f>Sheet4!H6</f>
+        <v>rankQuality:  "High",</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="str">
+        <f>Sheet4!H7</f>
+        <v>rankTime: "High",</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="str">
+        <f>Sheet4!H8</f>
+        <v>rankCost: "Medium",</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="str">
+        <f>Sheet4!H9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="str">
+        <f>Sheet4!H10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="str">
+        <f>Sheet4!H11</f>
+        <v>budget: "5000",</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="str">
+        <f>Sheet4!H12</f>
+        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="str">
+        <f>Sheet4!H13</f>
+        <v>typeDevelopment:'Native Mobile Application (iOS)',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="str">
+        <f>Sheet4!H14</f>
+        <v>technology:'Django',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="str">
+        <f>Sheet4!H15</f>
+        <v>quoteStatus: "closed",</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="str">
+        <f>Sheet4!H16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="str">
+        <f>Sheet4!H17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="str">
+        <f>Sheet4!H18</f>
+        <v>});</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="str">
+        <f>Sheet4!I1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="str">
+        <f>Sheet4!I2</f>
+        <v>quoteId:'108',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="str">
+        <f>Sheet4!I3</f>
+        <v>name: "Mr. Ross",</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="str">
+        <f>Sheet4!I4</f>
+        <v>email:"random@email.com",</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="str">
+        <f>Sheet4!I5</f>
+        <v>phone: "0868090777",</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="str">
+        <f>Sheet4!I6</f>
+        <v>rankQuality: "Low",</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="str">
+        <f>Sheet4!I7</f>
+        <v>rankTime:"Low",</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="str">
+        <f>Sheet4!I8</f>
+        <v>rankCost: "High",</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="str">
+        <f>Sheet4!I9</f>
+        <v>expectedDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="str">
+        <f>Sheet4!I10</f>
+        <v>liveDate: "01/09/2019",</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="str">
+        <f>Sheet4!I11</f>
+        <v>budget: "10000",</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="str">
+        <f>Sheet4!I12</f>
+        <v>brief: "this is the detailed brief",</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="str">
+        <f>Sheet4!I13</f>
+        <v>typeDevelopment:'E-Commerce Web Development',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="str">
+        <f>Sheet4!I14</f>
+        <v>technology:'NoSQL',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="str">
+        <f>Sheet4!I15</f>
+        <v>quoteStatus: "pending",</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="str">
+        <f>Sheet4!I16</f>
+        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="str">
+        <f>Sheet4!I17</f>
+        <v>quoteResponse: "sending the standard response"</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="str">
+        <f>Sheet4!I18</f>
+        <v>});</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>